--- a/Jogos_do_Dia/2023-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="H2" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>3.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,7 +763,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="N3" t="n">
         <v>1.6</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
         <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N5" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.91</v>
+        <v>3.03</v>
       </c>
       <c r="I6" t="n">
         <v>1.09</v>
@@ -1093,10 +1093,10 @@
         <v>2.42</v>
       </c>
       <c r="M6" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="N6" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.21</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>1.09</v>
@@ -1203,10 +1203,10 @@
         <v>2.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1420,13 +1420,13 @@
         <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="H10" t="n">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>2.8</v>
       </c>
       <c r="M10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="N10" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,10 +1643,10 @@
         <v>2.62</v>
       </c>
       <c r="M11" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1735,10 +1735,10 @@
         <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="H12" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,7 +1753,7 @@
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N12" t="n">
         <v>1.75</v>
@@ -2000,19 +2000,19 @@
         <v>1.29</v>
       </c>
       <c r="V14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
         <v>1.01</v>
@@ -2083,10 +2083,10 @@
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="N15" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2110,19 +2110,19 @@
         <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Y15" t="n">
         <v>1.65</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.41</v>
+        <v>2.47</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>3.17</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.62</v>
       </c>
       <c r="M16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.85</v>
+        <v>4.67</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I17" t="n">
         <v>1.01</v>
@@ -2303,10 +2303,10 @@
         <v>4.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="N17" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>

--- a/Jogos_do_Dia/2023-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="G2" t="n">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>3.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="N2" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -704,7 +704,7 @@
         <v>1.89</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE2" t="n">
         <v>1.29</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="G3" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -805,22 +805,22 @@
         <v>2.78</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -915,25 +915,25 @@
         <v>2.85</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="G5" t="n">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1025,25 +1025,25 @@
         <v>2.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="H6" t="n">
-        <v>3.03</v>
+        <v>3.14</v>
       </c>
       <c r="I6" t="n">
         <v>1.09</v>
@@ -1096,7 +1096,7 @@
         <v>2.45</v>
       </c>
       <c r="N6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1135,22 +1135,22 @@
         <v>2.48</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE6" t="n">
         <v>1.93</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="G7" t="n">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="I7" t="n">
         <v>1.09</v>
@@ -1206,7 +1206,7 @@
         <v>2.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1245,22 +1245,22 @@
         <v>2.32</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.24</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,7 +1313,7 @@
         <v>2.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
         <v>1.57</v>
@@ -1355,25 +1355,25 @@
         <v>3.22</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="H9" t="n">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1420,13 +1420,13 @@
         <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M9" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="N9" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -1465,22 +1465,22 @@
         <v>2.51</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1.93</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>2.8</v>
       </c>
       <c r="M10" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
@@ -1575,25 +1575,25 @@
         <v>2.86</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF10" t="n">
         <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="G11" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,10 +1643,10 @@
         <v>2.62</v>
       </c>
       <c r="M11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1685,25 +1685,25 @@
         <v>3.12</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE11" t="n">
         <v>1.85</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3.43</v>
+        <v>3.68</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.76</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,10 +1753,10 @@
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="I15" t="n">
         <v>1.01</v>
@@ -2083,10 +2083,10 @@
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.47</v>
+        <v>2.41</v>
       </c>
       <c r="G16" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.62</v>
       </c>
       <c r="M16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2235,25 +2235,25 @@
         <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I17" t="n">
         <v>1.01</v>
@@ -2303,10 +2303,10 @@
         <v>4.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>3.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -766,7 +766,7 @@
         <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -823,10 +823,10 @@
         <v>2.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -986,7 +986,7 @@
         <v>2.3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1046,7 +1046,7 @@
         <v>2.63</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>1.09</v>
@@ -1096,7 +1096,7 @@
         <v>2.45</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1153,10 +1153,10 @@
         <v>2.38</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.18</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>1.09</v>
@@ -1206,7 +1206,7 @@
         <v>2.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1263,10 +1263,10 @@
         <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.22</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1316,7 +1316,7 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1376,7 +1376,7 @@
         <v>3.15</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1417,16 +1417,16 @@
         <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="L9" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -1483,10 +1483,10 @@
         <v>2.38</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>2.63</v>
       </c>
       <c r="G10" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>2.8</v>
       </c>
       <c r="M10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
@@ -1596,7 +1596,7 @@
         <v>2.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,7 +1643,7 @@
         <v>2.62</v>
       </c>
       <c r="M11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N11" t="n">
         <v>1.53</v>
@@ -1706,7 +1706,7 @@
         <v>3.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>4.76</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,10 +1753,10 @@
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="N12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>10.36</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>5.63</v>
       </c>
       <c r="H14" t="n">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1973,10 +1973,10 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="N14" t="n">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
         <v>1.01</v>
@@ -2083,10 +2083,10 @@
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="N15" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.62</v>
       </c>
       <c r="M16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2256,7 +2256,7 @@
         <v>3.15</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I17" t="n">
         <v>1.01</v>
@@ -2303,10 +2303,10 @@
         <v>4.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="N17" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
